--- a/WebServerAPI/WebServerAPI/Files/Book1.xlsx
+++ b/WebServerAPI/WebServerAPI/Files/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuvi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29809EA-F905-4C32-90E4-54D011380DCF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{19E5AB6C-7A12-4A50-B4C0-F3679C291459}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Mã cán bộ</t>
+  </si>
   <si>
     <t>Họ tên</t>
   </si>
@@ -36,22 +38,31 @@
     <t>Tên bộ phận</t>
   </si>
   <si>
-    <t>Nguyễn Phú L</t>
-  </si>
-  <si>
-    <t>C:\Users\luuvi\Downloads\gopy.png</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn M</t>
-  </si>
-  <si>
-    <t>Lĩnh vực tài nguyên và đất đai</t>
+    <t>cb14</t>
+  </si>
+  <si>
+    <t>Trần Quốc K</t>
+  </si>
+  <si>
+    <t>D:\meme.png</t>
+  </si>
+  <si>
+    <t>Lĩnh vực lao động, thương binh và xã hội</t>
+  </si>
+  <si>
+    <t>cb15</t>
+  </si>
+  <si>
+    <t>Trần Trung P</t>
+  </si>
+  <si>
+    <t>Lĩnh vực lao động, Thương Binh Và Xã Hội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +128,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -129,7 +140,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -176,23 +187,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -228,23 +222,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,16 +373,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55135A7-5D04-4B7E-AAF2-D1B387890E63}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,27 +392,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/WebServerAPI/WebServerAPI/Files/Book1.xlsx
+++ b/WebServerAPI/WebServerAPI/Files/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,37 +26,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
     <t>Mã cán bộ</t>
   </si>
   <si>
     <t>Họ tên</t>
   </si>
   <si>
-    <t>Hình ảnh</t>
-  </si>
-  <si>
     <t>Tên bộ phận</t>
   </si>
   <si>
-    <t>cb14</t>
-  </si>
-  <si>
-    <t>Trần Quốc K</t>
-  </si>
-  <si>
-    <t>D:\meme.png</t>
-  </si>
-  <si>
-    <t>Lĩnh vực lao động, thương binh và xã hội</t>
-  </si>
-  <si>
-    <t>cb15</t>
-  </si>
-  <si>
-    <t>Trần Trung P</t>
-  </si>
-  <si>
-    <t>Lĩnh vực lao động, Thương Binh Và Xã Hội</t>
+    <t>cb43</t>
+  </si>
+  <si>
+    <t>Trần Quốc T</t>
+  </si>
+  <si>
+    <t>Lĩnh vực tài nguyên và đất đai</t>
+  </si>
+  <si>
+    <t>cb44</t>
+  </si>
+  <si>
+    <t>Hà Anh T</t>
+  </si>
+  <si>
+    <t>Lĩnh vực xây dựng</t>
+  </si>
+  <si>
+    <t>D:\images\user.png</t>
   </si>
 </sst>
 </file>
@@ -377,12 +377,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,35 +396,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>